--- a/EA Code/GKAH_EA/GKAH_EA Testing/DOE GKAH_EA.xlsx
+++ b/EA Code/GKAH_EA/GKAH_EA Testing/DOE GKAH_EA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdeni\Documents\GitHub\Apiary\EA Code\GKAH_EA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdeni\Documents\GitHub\Apiary\EA Code\GKAH_EA\GKAH_EA Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517F40C8-B958-4D90-B3CF-35702721D075}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E2C873-63EE-44F2-A67A-45B51E3BD8BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{66D871B5-3A47-40FC-A471-7106C682256A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>DOE GKAH_EA</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Lot Size</t>
-  </si>
-  <si>
-    <t>Strategy #2</t>
   </si>
   <si>
     <t>Greg</t>
@@ -469,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2275047D-BA40-49AC-8E55-A3BB5A1A3324}">
-  <dimension ref="B1:J26"/>
+  <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,31 +493,31 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -680,42 +677,32 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -726,166 +713,14 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1">
-        <v>4</v>
-      </c>
-      <c r="G18" s="1">
-        <v>5</v>
-      </c>
-      <c r="H18" s="1">
-        <v>6</v>
-      </c>
-      <c r="I18" s="1">
-        <v>7</v>
-      </c>
-      <c r="J18" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>7</v>
-      </c>
-      <c r="F19">
-        <v>7</v>
-      </c>
-      <c r="G19">
-        <v>7</v>
-      </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="I19">
-        <v>7</v>
-      </c>
-      <c r="J19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>0.1</v>
-      </c>
-      <c r="D20">
-        <v>0.1</v>
-      </c>
-      <c r="E20">
-        <v>0.1</v>
-      </c>
-      <c r="F20">
-        <v>0.1</v>
-      </c>
-      <c r="G20">
-        <v>0.1</v>
-      </c>
-      <c r="H20">
-        <v>0.1</v>
-      </c>
-      <c r="I20">
-        <v>0.1</v>
-      </c>
-      <c r="J20">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/EA Code/GKAH_EA/GKAH_EA Testing/DOE GKAH_EA.xlsx
+++ b/EA Code/GKAH_EA/GKAH_EA Testing/DOE GKAH_EA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdeni\Documents\GitHub\Apiary\EA Code\GKAH_EA\GKAH_EA Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E2C873-63EE-44F2-A67A-45B51E3BD8BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7362989A-8420-4C4E-96A8-5003E56ACA45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{66D871B5-3A47-40FC-A471-7106C682256A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>DOE GKAH_EA</t>
   </si>
@@ -57,37 +57,40 @@
     <t>Rex</t>
   </si>
   <si>
+    <t>#Wins</t>
+  </si>
+  <si>
+    <t>#Loss</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>%Win</t>
+  </si>
+  <si>
+    <t>Total Profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barb </t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>CCI Exit</t>
+  </si>
+  <si>
+    <t>Vern</t>
+  </si>
+  <si>
     <t>Andrew</t>
-  </si>
-  <si>
-    <t>#Wins</t>
-  </si>
-  <si>
-    <t>#Loss</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>%Win</t>
-  </si>
-  <si>
-    <t>Total Profit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barb </t>
-  </si>
-  <si>
-    <t>Alan</t>
-  </si>
-  <si>
-    <t>Andy</t>
-  </si>
-  <si>
-    <t>Jeff</t>
-  </si>
-  <si>
-    <t>Karen</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2275047D-BA40-49AC-8E55-A3BB5A1A3324}">
-  <dimension ref="B1:J18"/>
+  <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +496,7 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -502,22 +505,22 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -622,22 +625,22 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -651,22 +654,22 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -677,56 +680,79 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>-30</v>
+      </c>
+      <c r="D10">
+        <v>-20</v>
+      </c>
+      <c r="E10">
+        <v>-40</v>
+      </c>
+      <c r="F10">
+        <v>-20</v>
+      </c>
+      <c r="G10">
+        <v>-30</v>
+      </c>
+      <c r="H10">
+        <v>-40</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
